--- a/PV_Recycling_Plant/data/RELOG input preparations.xlsx
+++ b/PV_Recycling_Plant/data/RELOG input preparations.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmendez/Documents/Postdoc/Software_dev/RICE/RICE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmendez/Documents/Postdoc/Software_dev/RICE/RICE/PV_Recycling_Plant/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8153C762-86AB-2E49-A459-556AB2C407BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673F3896-A6F6-3F4D-9CF7-4ACD1D242103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68640" yWindow="13220" windowWidth="21600" windowHeight="16940" xr2:uid="{F1F5186A-31B1-0A46-8F11-D9BAEA267C6C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{F1F5186A-31B1-0A46-8F11-D9BAEA267C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HPC scratchbook" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Option 1</t>
   </si>
@@ -70,12 +71,51 @@
   <si>
     <t>Glass</t>
   </si>
+  <si>
+    <t>Elapsed seconds</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Elapsed minutes</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>User callback</t>
+  </si>
+  <si>
+    <t>Solver iterations</t>
+  </si>
+  <si>
+    <t>Solution time (s)</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Work units</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -100,14 +140,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -120,6 +166,4750 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.916666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4599999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D83-3A44-B992-E752665AC217}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="149150032"/>
+        <c:axId val="149097824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="149150032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149097824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149097824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149150032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC scratchbook'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User callback</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$B$21:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$C$21:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-463A-1841-B89F-F010C7C60FC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200160128"/>
+        <c:axId val="199861248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200160128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199861248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199861248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200160128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC scratchbook'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solver iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$B$21:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$D$21:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>17685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7351-BB45-8767-DEEDC2AD566F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2049529983"/>
+        <c:axId val="2049399583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2049529983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049399583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2049399583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049529983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC scratchbook'!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solution time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$B$21:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$F$21:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B431-B545-8006-25B50CE5CF2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2049068047"/>
+        <c:axId val="1627003087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2049068047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627003087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1627003087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049068047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC scratchbook'!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work units</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$B$21:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HPC scratchbook'!$E$21:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-719C-894D-9461-D722EDBBD7C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2094522415"/>
+        <c:axId val="149835040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094522415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149835040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149835040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094522415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5241BED-B222-6FCF-A59A-1B977EABA2D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3CFEFC-2378-D47F-7153-83A92AE57B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168ACB63-9769-835C-9935-48418B418B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE9C07D-C04E-6C2F-3B4F-A1BAC4B1CAAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5F0340-F39E-E6EF-A862-E5C1E72B7F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31AFD6CB-C38E-3347-A162-BBB98FCC8A26}" name="Table1" displayName="Table1" ref="B19:F30" totalsRowShown="0">
+  <autoFilter ref="B19:F30" xr:uid="{31AFD6CB-C38E-3347-A162-BBB98FCC8A26}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{03235E11-6C36-E441-9B7A-E39AA580EC1C}" name="N"/>
+    <tableColumn id="2" xr3:uid="{BFDD3431-C7C8-B34C-8619-1E17987A0560}" name="User callback"/>
+    <tableColumn id="3" xr3:uid="{FB4B430F-16FA-2E4D-8D2D-480F1EC69BED}" name="Solver iterations"/>
+    <tableColumn id="4" xr3:uid="{CF6E6F0B-BCE2-E84B-B0A9-2FA2DF7E59BB}" name="Work units"/>
+    <tableColumn id="5" xr3:uid="{96B5B29F-C00D-BB4B-B824-1613D5FE27D5}" name="Solution time (s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,7 +5211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB67228-FF67-094A-9031-463A271A346F}">
   <dimension ref="B3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -481,4 +5271,363 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E0127-BB12-134F-AB36-8F070A38BFC5}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="D1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>303</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>318</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D8" si="0">C4/60</f>
+        <v>5.3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1077</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>17.95</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1250</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1495</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>24.916666666666668</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2349</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>39.15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1">
+        <v>627584569.89999998</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>21923</v>
+      </c>
+      <c r="D20">
+        <v>518142</v>
+      </c>
+      <c r="E20">
+        <v>113.5</v>
+      </c>
+      <c r="F20">
+        <v>226.62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1144</v>
+      </c>
+      <c r="D21">
+        <v>17685</v>
+      </c>
+      <c r="E21">
+        <v>6.83</v>
+      </c>
+      <c r="F21">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>443</v>
+      </c>
+      <c r="D22">
+        <v>17181</v>
+      </c>
+      <c r="E22">
+        <v>6.76</v>
+      </c>
+      <c r="F22">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>798</v>
+      </c>
+      <c r="D23">
+        <v>11360</v>
+      </c>
+      <c r="E23">
+        <v>6.47</v>
+      </c>
+      <c r="F23">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>382</v>
+      </c>
+      <c r="D24">
+        <v>11310</v>
+      </c>
+      <c r="E24">
+        <v>6.46</v>
+      </c>
+      <c r="F24">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>313</v>
+      </c>
+      <c r="D25">
+        <v>12040</v>
+      </c>
+      <c r="E25">
+        <v>6.47</v>
+      </c>
+      <c r="F25">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>591</v>
+      </c>
+      <c r="D26">
+        <v>10658</v>
+      </c>
+      <c r="E26">
+        <v>6.48</v>
+      </c>
+      <c r="F26">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1190</v>
+      </c>
+      <c r="D27">
+        <v>12129</v>
+      </c>
+      <c r="E27">
+        <v>6.47</v>
+      </c>
+      <c r="F27">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>539</v>
+      </c>
+      <c r="D28">
+        <v>12019</v>
+      </c>
+      <c r="E28">
+        <v>6.64</v>
+      </c>
+      <c r="F28">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>520</v>
+      </c>
+      <c r="D29">
+        <v>10864</v>
+      </c>
+      <c r="E29">
+        <v>6.46</v>
+      </c>
+      <c r="F29">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>464</v>
+      </c>
+      <c r="D30">
+        <v>13629</v>
+      </c>
+      <c r="E30">
+        <v>6.47</v>
+      </c>
+      <c r="F30">
+        <v>10.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>